--- a/Input_data/EST_US_trad_eco_cal_2025-01-07_to_2025-01-08.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2025-01-07_to_2025-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,8 +494,10 @@
           <t>LMI Logistics Managers IndexDEC</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>57.3</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -538,10 +540,14 @@
           <t>Balance of TradeNOV</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$-78.2B</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
+          <t>$-73.6B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -569,10 +575,14 @@
           <t>ExportsNOV</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$273.4B</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$265.7B</t>
+          <t>$266.3B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -596,10 +606,14 @@
           <t>ImportsNOV</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$351.6B</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>$339.9B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -623,7 +637,11 @@
           <t>Redbook YoYJAN/04</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>7.1%</t>
@@ -646,7 +664,11 @@
           <t>ISM Services PMIDEC</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>52.1</t>
@@ -677,10 +699,14 @@
           <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8.098M</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.744M</t>
+          <t>7.839M</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -708,7 +734,11 @@
           <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>53.7</t>
@@ -735,13 +765,21 @@
           <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>51.5</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>52</t>
@@ -762,13 +800,21 @@
           <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>53.7</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>54.1</t>
@@ -789,13 +835,21 @@
           <t>ISM Services PricesDEC</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>58.2</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>57.5</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>58.4</t>
@@ -816,10 +870,14 @@
           <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3.065M</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>3.283M</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1216,7 +1274,11 @@
           <t>-1.178M</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
         <v>2</v>
@@ -1239,7 +1301,11 @@
           <t>7.717M</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
         <v>2</v>
@@ -1331,7 +1397,11 @@
           <t>6.406M</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
         <v>3</v>
@@ -1513,7 +1583,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>$12B</t>
+          <t>$10.5B</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1561,6 +1631,93 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Manufacturing Production MoMDEC</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Manufacturing Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Input_data/EST_US_trad_eco_cal_2025-01-07_to_2025-01-08.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2025-01-07_to_2025-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,7 +901,11 @@
           <t>42-Day Bill Auction</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.245%</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>4.280%</t>
@@ -964,44 +968,40 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesDEC</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>16.3M</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Wednesday January 08 2025</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/03</t>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>-12.6%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1034,13 +1034,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/03</t>
+          <t>MBA Mortgage Market IndexJAN/03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-12.6%</t>
+          <t>174.9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1057,13 +1057,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/03</t>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>174.9</t>
+          <t>395.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1080,13 +1080,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/03</t>
+          <t>MBA Purchase IndexJAN/03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>395.1</t>
+          <t>136.7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1098,53 +1098,49 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/03</t>
+          <t>ADP Employment ChangeDEC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>136.7</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeDEC</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>146K</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
         <v>2</v>
       </c>
@@ -1157,13 +1153,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>218K</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="G27" t="n">
         <v>2</v>
       </c>
@@ -1176,27 +1184,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>Continuing Jobless ClaimsDEC/28</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>211K</t>
+          <t>1844K</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>218K</t>
+          <t>1870K</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>1848K</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1207,23 +1215,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1844K</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1870K</t>
-        </is>
-      </c>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1848K</t>
+          <t>224K</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1233,28 +1237,28 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>223.25K</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1265,18 +1269,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-1.178M</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-0.25M</t>
+          <t>0.5M</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1292,23 +1296,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7.717M</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.5M</t>
-        </is>
-      </c>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1319,13 +1319,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1342,13 +1342,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1365,16 +1365,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.099M</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
         <v>3</v>
@@ -1388,20 +1392,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6.406M</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.5M</t>
-        </is>
-      </c>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
         <v>3</v>
@@ -1415,13 +1415,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1438,13 +1438,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1456,18 +1456,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1479,18 +1479,18 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1502,18 +1502,18 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1525,72 +1525,68 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>4.535%</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>Consumer Credit ChangeNOV</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>$10.5B</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeNOV</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>$19.24B</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>$10.5B</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>$14.0B</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
         <v>3</v>
       </c>
@@ -1599,13 +1595,13 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>Used Car Prices YoYDEC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1618,17 +1614,25 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
       <c r="G46" t="n">
         <v>3</v>
       </c>
@@ -1715,6 +1719,48 @@
         </is>
       </c>
       <c r="G49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2025-01-07_to_2025-01-08.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2025-01-07_to_2025-01-08.xlsx
@@ -928,7 +928,11 @@
           <t>10-Year Note Auction</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4.68%</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>4.235%</t>

--- a/Input_data/EST_US_trad_eco_cal_2025-01-07_to_2025-01-08.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2025-01-07_to_2025-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1770,6 +1770,81 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsNOV</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentNOV</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsNOV</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2025-01-07_to_2025-01-08.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2025-01-07_to_2025-01-08.xlsx
@@ -955,7 +955,11 @@
           <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-4.022M</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>-1.442M</t>
